--- a/data/Transmission_sample.xlsx
+++ b/data/Transmission_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Apac.corpdir.net\a575\public\_Projects\CO2_WS\20211101_vehicle_long_cal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhilitp\GUI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,136 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Horiuchi, Manabu (575)</author>
+  </authors>
+  <commentList>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>T/F Gear ratio
+1.00</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">T/F Gear ratio
+1.090
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">T/F Gear ratio
+Hi:1.090
+Lo:1.987
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>T/F Gear ratio
+Hi:1.090
+Lo:1.987</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>T/F Gear ratio
+Hi:1.090
+Lo:1.987</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="41">
   <si>
     <t>Data number</t>
     <phoneticPr fontId="0"/>
@@ -88,6 +216,90 @@
   </si>
   <si>
     <t>M456S12</t>
+  </si>
+  <si>
+    <t>TTXAT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TTXAT</t>
+  </si>
+  <si>
+    <t>Horiuchi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Horiuchi</t>
+  </si>
+  <si>
+    <t>M038S6(2WD)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M038S6(FT4WD)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M038S6(PT4WD)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M038S5A(2WD)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M038S5A(PT4WD-Hi)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M038S5A(PT4WD-Lo)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M038S5B(2WD)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M038S5B(PT 4WD-Hi)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M038S5B(PT 4WD-Lo)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T/F Gear ratio 1.090</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T/F Gear ratio 1.987</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3.193*1.090</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.689*1.090</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.000*1.090</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0.723*1.090</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -98,7 +310,7 @@
     <numFmt numFmtId="164" formatCode="0.000_ "/>
     <numFmt numFmtId="165" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +323,30 @@
       <color theme="1"/>
       <name val="CorpoS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -354,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,6 +653,18 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,16 +677,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,429 +980,537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="18.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="21.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="21.6" thickBot="1"/>
+    <row r="2" spans="1:43">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="34">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="24">
+      <c r="C2" s="35"/>
+      <c r="D2" s="34">
         <v>2</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="24">
+      <c r="E2" s="35"/>
+      <c r="F2" s="34">
         <v>3</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24">
+      <c r="G2" s="35"/>
+      <c r="H2" s="34">
         <v>4</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24">
+      <c r="I2" s="35"/>
+      <c r="J2" s="34">
         <v>5</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="24">
+      <c r="K2" s="35"/>
+      <c r="L2" s="34">
         <v>6</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="24">
+      <c r="M2" s="35"/>
+      <c r="N2" s="34">
         <v>7</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="24">
+      <c r="O2" s="35"/>
+      <c r="P2" s="34">
         <v>8</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="24">
+      <c r="Q2" s="35"/>
+      <c r="R2" s="34">
         <v>9</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="24">
+      <c r="S2" s="35"/>
+      <c r="T2" s="34">
         <v>10</v>
       </c>
-      <c r="U2" s="25"/>
-      <c r="V2" s="24">
+      <c r="U2" s="35"/>
+      <c r="V2" s="34">
         <v>11</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="24">
+      <c r="W2" s="35"/>
+      <c r="X2" s="34">
         <v>12</v>
       </c>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="24">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="34">
         <v>13</v>
       </c>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="24">
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="34">
         <v>14</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="24">
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="34">
         <v>15</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="24">
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="34">
         <v>16</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="24">
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="34">
         <v>17</v>
       </c>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="24">
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="34">
         <v>18</v>
       </c>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="24">
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="34">
         <v>19</v>
       </c>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="24">
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="34">
         <v>20</v>
       </c>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="24">
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="34">
         <v>21</v>
       </c>
-      <c r="AQ2" s="25"/>
+      <c r="AQ2" s="35"/>
     </row>
-    <row r="3" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" s="6" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="24">
         <v>20211216</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="20">
+      <c r="C3" s="25"/>
+      <c r="D3" s="24">
         <v>20211216</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="26">
+      <c r="E3" s="25"/>
+      <c r="F3" s="28">
         <v>20211216</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="24">
+        <v>20221017</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="28">
+        <v>20221017</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="28">
+        <v>20221017</v>
+      </c>
+      <c r="M3" s="29"/>
+      <c r="N3" s="28">
+        <v>20221017</v>
+      </c>
+      <c r="O3" s="29"/>
+      <c r="P3" s="28">
+        <v>20221017</v>
+      </c>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="28">
+        <v>20221017</v>
+      </c>
+      <c r="S3" s="29"/>
+      <c r="T3" s="28">
+        <v>20221017</v>
+      </c>
+      <c r="U3" s="29"/>
+      <c r="V3" s="28">
+        <v>20221017</v>
+      </c>
+      <c r="W3" s="29"/>
+      <c r="X3" s="28">
+        <v>20221017</v>
+      </c>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="25"/>
     </row>
-    <row r="4" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" s="6" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="21"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="29"/>
+      <c r="T4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="29"/>
+      <c r="V4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="29"/>
+      <c r="X4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="25"/>
     </row>
-    <row r="5" spans="1:43" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" s="6" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="21"/>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="21"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="29"/>
+      <c r="T5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="29"/>
+      <c r="V5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="29"/>
+      <c r="X5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="25"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="21"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="31"/>
+      <c r="P6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="33"/>
+      <c r="T6" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="33"/>
+      <c r="V6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="33"/>
+      <c r="X6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="25"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="21"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="29"/>
+      <c r="T7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="29"/>
+      <c r="V7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="29"/>
+      <c r="X7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="25"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="21"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="25"/>
+      <c r="T8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="V8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="25"/>
+      <c r="X8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="25"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:43">
+      <c r="A9" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1159,59 +1531,59 @@
       <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="K9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="O9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="Q9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="2" t="s">
+      <c r="S9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V9" s="2" t="s">
+      <c r="U9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="2" t="s">
+      <c r="W9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>12</v>
+      <c r="Y9" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>11</v>
@@ -1268,8 +1640,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:43" ht="21.6" thickBot="1">
+      <c r="A10" s="27"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
@@ -1288,59 +1660,59 @@
       <c r="G10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>13</v>
+      <c r="H10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="Z10" s="9" t="s">
         <v>13</v>
@@ -1397,7 +1769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -1419,24 +1791,70 @@
       <c r="G11" s="12">
         <v>0.96059600999999994</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="12"/>
+      <c r="H11" s="11">
+        <v>5.3970000000000002</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J11" s="11">
+        <v>5.3970000000000002</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="L11" s="11">
+        <f>5.397*1.09</f>
+        <v>5.8827300000000005</v>
+      </c>
+      <c r="M11" s="15">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="N11" s="11">
+        <v>5.4939999999999998</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="P11" s="11">
+        <f>5.494*1.09</f>
+        <v>5.9884599999999999</v>
+      </c>
+      <c r="Q11" s="12">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="R11" s="11">
+        <f>5.494*1.987</f>
+        <v>10.916577999999999</v>
+      </c>
+      <c r="S11" s="12">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="T11" s="11">
+        <v>5.4939999999999998</v>
+      </c>
+      <c r="U11" s="12">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="V11" s="11">
+        <f>5.494*1.09</f>
+        <v>5.9884599999999999</v>
+      </c>
+      <c r="W11" s="12">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="X11" s="11">
+        <f>5.494*1.987</f>
+        <v>10.916577999999999</v>
+      </c>
+      <c r="Y11" s="12">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
       <c r="Z11" s="11"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="11"/>
@@ -1456,7 +1874,7 @@
       <c r="AP11" s="11"/>
       <c r="AQ11" s="12"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -1478,24 +1896,69 @@
       <c r="G12" s="15">
         <v>0.96059600999999994</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="15"/>
+      <c r="H12" s="14">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J12" s="14">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="L12" s="14">
+        <f>3.788*1.09</f>
+        <v>4.1289199999999999</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" ref="M12:M14" si="0">0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="N12" s="14">
+        <v>3.1930000000000001</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" ref="Q12:S12" si="1">0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="R12" s="14">
+        <f>3.193*1.987</f>
+        <v>6.3444910000000005</v>
+      </c>
+      <c r="S12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="T12" s="14">
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="U12" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="V12" s="14">
+        <f>3.038*1.09</f>
+        <v>3.31142</v>
+      </c>
+      <c r="W12" s="12">
+        <f t="shared" ref="W12" si="2">0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="X12" s="14">
+        <f>3.038*1.987</f>
+        <v>6.0365060000000001</v>
+      </c>
+      <c r="Y12" s="12">
+        <f t="shared" ref="Y12" si="3">0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
       <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
       <c r="AB12" s="14"/>
@@ -1515,7 +1978,7 @@
       <c r="AP12" s="14"/>
       <c r="AQ12" s="15"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -1537,24 +2000,68 @@
       <c r="G13" s="15">
         <v>0.96059600999999994</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="15"/>
+      <c r="H13" s="14">
+        <v>2.31</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J13" s="14">
+        <v>2.31</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2.31</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="0"/>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="N13" s="14">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="12">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="R13" s="14">
+        <f>1.689*1.987</f>
+        <v>3.3560430000000001</v>
+      </c>
+      <c r="S13" s="12">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="T13" s="14">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="U13" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="V13" s="14">
+        <f>1.592*1.09</f>
+        <v>1.7352800000000002</v>
+      </c>
+      <c r="W13" s="12">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="X13" s="14">
+        <f>1.592*1.987</f>
+        <v>3.1633040000000001</v>
+      </c>
+      <c r="Y13" s="12">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
       <c r="Z13" s="14"/>
       <c r="AA13" s="15"/>
       <c r="AB13" s="14"/>
@@ -1574,7 +2081,7 @@
       <c r="AP13" s="14"/>
       <c r="AQ13" s="15"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43">
       <c r="A14" s="13">
         <v>4</v>
       </c>
@@ -1596,24 +2103,69 @@
       <c r="G14" s="15">
         <v>0.96059600999999994</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="15"/>
+      <c r="H14" s="14">
+        <v>1.474</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J14" s="14">
+        <v>1.474</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="L14" s="14">
+        <f>1.474*1.09</f>
+        <v>1.6066600000000002</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="N14" s="14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="15">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="15">
+        <f>0.931*0.99*0.99</f>
+        <v>0.91247310000000004</v>
+      </c>
+      <c r="R14" s="14">
+        <f>1*1.987</f>
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="S14" s="15">
+        <f>0.931*0.99*0.99</f>
+        <v>0.91247310000000004</v>
+      </c>
+      <c r="T14" s="14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="15">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="V14" s="14">
+        <f>1*1.09</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="W14" s="15">
+        <f>0.931*0.99*0.99</f>
+        <v>0.91247310000000004</v>
+      </c>
+      <c r="X14" s="14">
+        <f>1*1.987</f>
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="Y14" s="15">
+        <f>0.931*0.99*0.99</f>
+        <v>0.91247310000000004</v>
+      </c>
       <c r="Z14" s="14"/>
       <c r="AA14" s="15"/>
       <c r="AB14" s="14"/>
@@ -1633,7 +2185,7 @@
       <c r="AP14" s="14"/>
       <c r="AQ14" s="15"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43">
       <c r="A15" s="13">
         <v>5</v>
       </c>
@@ -1655,24 +2207,69 @@
       <c r="G15" s="15">
         <v>0.96059600999999994</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="15"/>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="L15" s="14">
+        <f>1*1.09</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M15" s="15">
+        <f>0.931*0.99*0.99</f>
+        <v>0.91247310000000004</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="12">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="R15" s="14">
+        <f>0.723*1.987</f>
+        <v>1.436601</v>
+      </c>
+      <c r="S15" s="12">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="T15" s="14">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="U15" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="V15" s="14">
+        <f>0.723*1.09</f>
+        <v>0.78807000000000005</v>
+      </c>
+      <c r="W15" s="12">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
+      <c r="X15" s="14">
+        <f>0.723*1.987</f>
+        <v>1.436601</v>
+      </c>
+      <c r="Y15" s="12">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
       <c r="Z15" s="14"/>
       <c r="AA15" s="15"/>
       <c r="AB15" s="14"/>
@@ -1692,7 +2289,7 @@
       <c r="AP15" s="14"/>
       <c r="AQ15" s="15"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43">
       <c r="A16" s="13">
         <v>6</v>
       </c>
@@ -1710,12 +2307,26 @@
       <c r="G16" s="15">
         <v>0.96059600999999994</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
+      <c r="H16" s="14">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="L16" s="14">
+        <f>0.701*1.09</f>
+        <v>0.76409000000000005</v>
+      </c>
+      <c r="M16" s="15">
+        <f>0.913*0.99*0.99</f>
+        <v>0.89483130000000011</v>
+      </c>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
       <c r="P16" s="14"/>
@@ -1747,7 +2358,7 @@
       <c r="AP16" s="14"/>
       <c r="AQ16" s="15"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43">
       <c r="A17" s="13">
         <v>7</v>
       </c>
@@ -1798,7 +2409,7 @@
       <c r="AP17" s="14"/>
       <c r="AQ17" s="15"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43">
       <c r="A18" s="13">
         <v>8</v>
       </c>
@@ -1816,7 +2427,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="14"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="15"/>
       <c r="N18" s="14"/>
       <c r="O18" s="15"/>
@@ -1849,7 +2460,7 @@
       <c r="AP18" s="14"/>
       <c r="AQ18" s="15"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43">
       <c r="A19" s="13">
         <v>9</v>
       </c>
@@ -1900,7 +2511,7 @@
       <c r="AP19" s="14"/>
       <c r="AQ19" s="15"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43">
       <c r="A20" s="13">
         <v>10</v>
       </c>
@@ -1951,7 +2562,7 @@
       <c r="AP20" s="14"/>
       <c r="AQ20" s="15"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43">
       <c r="A21" s="13">
         <v>11</v>
       </c>
@@ -2002,7 +2613,7 @@
       <c r="AP21" s="14"/>
       <c r="AQ21" s="15"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43">
       <c r="A22" s="13">
         <v>12</v>
       </c>
@@ -2053,7 +2664,7 @@
       <c r="AP22" s="14"/>
       <c r="AQ22" s="15"/>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43">
       <c r="A23" s="13">
         <v>13</v>
       </c>
@@ -2100,7 +2711,7 @@
       <c r="AP23" s="14"/>
       <c r="AQ23" s="15"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43">
       <c r="A24" s="13">
         <v>14</v>
       </c>
@@ -2147,7 +2758,7 @@
       <c r="AP24" s="14"/>
       <c r="AQ24" s="15"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43">
       <c r="A25" s="13">
         <v>15</v>
       </c>
@@ -2194,7 +2805,7 @@
       <c r="AP25" s="14"/>
       <c r="AQ25" s="15"/>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43">
       <c r="A26" s="13">
         <v>16</v>
       </c>
@@ -2241,7 +2852,7 @@
       <c r="AP26" s="14"/>
       <c r="AQ26" s="15"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43">
       <c r="A27" s="13">
         <v>17</v>
       </c>
@@ -2288,7 +2899,7 @@
       <c r="AP27" s="14"/>
       <c r="AQ27" s="15"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43">
       <c r="A28" s="13">
         <v>18</v>
       </c>
@@ -2335,7 +2946,7 @@
       <c r="AP28" s="14"/>
       <c r="AQ28" s="15"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43">
       <c r="A29" s="13">
         <v>19</v>
       </c>
@@ -2382,7 +2993,7 @@
       <c r="AP29" s="14"/>
       <c r="AQ29" s="15"/>
     </row>
-    <row r="30" spans="1:43" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:43" ht="21.6" thickBot="1">
       <c r="A30" s="16">
         <v>20</v>
       </c>
@@ -2429,13 +3040,11 @@
       <c r="AP30" s="17"/>
       <c r="AQ30" s="18"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43">
       <c r="C31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -2465,6 +3074,8 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
@@ -2548,15 +3159,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="AN7:AO7"/>
     <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AG7"/>
     <mergeCell ref="AH7:AI7"/>
@@ -2568,6 +3170,7 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AP8:AQ8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="AD8:AE8"/>
@@ -2582,8 +3185,17 @@
     <mergeCell ref="X8:Y8"/>
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>